--- a/Maquinaria/proximo.xlsx
+++ b/Maquinaria/proximo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maquinaria\Maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFE968-00AC-422F-B9B8-87C1A716AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA505AFA-1463-40F0-8BED-CA0BA6E694F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C21954B-9F2F-439C-A9EB-1C9686E9CE61}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="83" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
